--- a/data.xlsx
+++ b/data.xlsx
@@ -11,6 +11,8 @@
     <sheet name="2023-04-05" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2023-04-06" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="06-04-2023" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="07-04-2023" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="08-04-2023" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1431,4 +1433,696 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Waktu</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nama</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NIM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tag RFID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Kehadiran</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Mata Kuliah</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Kode Mata Kuliah</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Kode Kelas</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Lokasi</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Dosen</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07-04-2023 23:08:20</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07-04-2023 23:09:11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07-04-2023 23:09:32</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07-04-2023 23:39:44</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07-04-2023 23:42:39</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Waktu</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nama</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>NIM</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tag RFID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Kehadiran</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Mata Kuliah</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Kode Mata Kuliah</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Kode Kelas</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Lokasi</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Dosen</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08-04-2023 10:50:07</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08-04-2023 10:50:56</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08-04-2023 10:52:25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08-04-2023 10:53:41</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08-04-2023 10:55:42</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08-04-2023 10:58:18</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08-04-2023 10:59:38</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:08:45</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mohamad Maulana Firdaus Ramadhan</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19622267</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TAG :138154170</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:09:53</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:11:47</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mohamad Maulana Firdaus Ramadhan</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>19622267</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TAG :138154170</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:15:13</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:15:57</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:17:08</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mohamad Maulana Firdaus Ramadhan</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>19622267</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TAG :138154170</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:17:42</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mohamad Maulana Firdaus Ramadhan</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>19622267</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TAG :138154170</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:20:16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:20:39</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:24:26</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -449,7 +449,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="33.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="14.90625" bestFit="1" customWidth="1" min="3" max="3"/>
@@ -534,7 +534,7 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="9.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="10.453125" bestFit="1" customWidth="1" min="8" max="8"/>
@@ -1066,7 +1066,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="17.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="14.81640625" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -1270,7 +1270,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="17.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="10.7265625" bestFit="1" customWidth="1" min="6" max="6"/>
@@ -1637,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2122,6 +2122,306 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>08-04-2023 11:57:59</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mohamad Maulana Firdaus Ramadhan</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>19622267</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TAG :138154170</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08-04-2023 12:11:22</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mohamad Maulana Firdaus Ramadhan</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19622267</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TAG :138154170</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08-04-2023 12:13:11</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08-04-2023 12:44:48</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-04-2023 12:44:48</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>08-04-2023 12:44:58</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08-04-2023 21:08:10</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mohamad Maulana Firdaus Ramadhan</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>19622267</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TAG :138154170</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08-04-2023 21:08:10</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08-04-2023 21:09:12</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mohamad Maulana Firdaus Ramadhan</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>19622267</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TAG :138154170</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08-04-2023 21:09:12</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08-04-2023 21:12:06</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ikhwan Al Hakim</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>19622278</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TAG :13123438</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>08-04-2023 21:12:06</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mohamad Maulana Firdaus Ramadhan</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>19622267</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TAG :138154170</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Hadir</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
